--- a/Datasource/Results/Excel/scoop-A_AP-9.d_3_GraspFirstImprovementPathRelinkMixed.xlsx
+++ b/Datasource/Results/Excel/scoop-A_AP-9.d_3_GraspFirstImprovementPathRelinkMixed.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -377,325 +377,32 @@
           <t xml:space="preserve"> TEMPO</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MMOSP</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.507</v>
+        <v>0.516</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.7421875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.337</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.476</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>8</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.507</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.335</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.383</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>9</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.377</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.396</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.5629999999999999</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.402</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>8</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.519</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>9</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.339</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>8</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.477</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>8</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.522</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>8</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.332</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>8</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.363</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>9</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.412</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>8</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>8</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.583</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>8</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.457</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>8</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.525</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>9</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.335</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>8</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.449</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>8</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.474</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>8</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.329</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>8</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.379</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>9</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.395</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>8</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.394</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>8</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.622</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>8</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.411</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>8</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.5429999999999999</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>9</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.351</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>8</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.5570000000000001</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>8</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.616</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>8</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.371</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>8</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.381</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>9</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.341</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>8</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.349</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>8</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.579</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>8</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.337</v>
+        <v>0.517</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.7421875</v>
       </c>
     </row>
   </sheetData>

--- a/Datasource/Results/Excel/scoop-A_AP-9.d_3_GraspFirstImprovementPathRelinkMixed.xlsx
+++ b/Datasource/Results/Excel/scoop-A_AP-9.d_3_GraspFirstImprovementPathRelinkMixed.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -377,32 +377,325 @@
           <t xml:space="preserve"> TEMPO</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MMOSP</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.516</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8.7421875</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.517</v>
-      </c>
-      <c r="C3" t="n">
-        <v>8.7421875</v>
+        <v>0.337</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.476</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.507</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.335</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.383</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.396</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.402</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.519</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.339</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.477</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>8</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.522</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.332</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.363</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>9</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.412</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>8</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.583</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.457</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>9</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.335</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.449</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.474</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>8</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.329</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>8</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>9</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.395</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>8</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.394</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>8</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>8</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.411</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>8</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5429999999999999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>9</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.351</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>8</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>8</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.616</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>8</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>8</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.381</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>9</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.341</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>8</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.349</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>8</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.579</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>8</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.337</v>
       </c>
     </row>
   </sheetData>
